--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -43,10 +43,10 @@
     <t>correction</t>
   </si>
   <si>
+    <t>sub_module</t>
+  </si>
+  <si>
     <t>module</t>
-  </si>
-  <si>
-    <t>sub_module</t>
   </si>
   <si>
     <t>1 .) Le cornet nasal inferieur</t>
